--- a/Code/Results/Cases/Case_1_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.14064979140922</v>
+        <v>13.768360054235</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.475111739874157</v>
+        <v>10.30614043403994</v>
       </c>
       <c r="E2">
-        <v>9.117064089654448</v>
+        <v>15.37566571272588</v>
       </c>
       <c r="F2">
-        <v>19.94679196883822</v>
+        <v>30.63715244501142</v>
       </c>
       <c r="G2">
-        <v>21.33256390017017</v>
+        <v>29.982748526454</v>
       </c>
       <c r="H2">
-        <v>8.719841297316128</v>
+        <v>14.68347457919492</v>
       </c>
       <c r="I2">
-        <v>15.57317687198846</v>
+        <v>25.74724792094496</v>
       </c>
       <c r="J2">
-        <v>6.518475527018115</v>
+        <v>10.95712308390268</v>
       </c>
       <c r="K2">
-        <v>12.68376779610919</v>
+        <v>8.511301873186509</v>
       </c>
       <c r="L2">
-        <v>6.833445286709734</v>
+        <v>9.474218825952276</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.82860898196415</v>
+        <v>19.45540016240225</v>
       </c>
       <c r="O2">
-        <v>14.08587290916836</v>
+        <v>22.49773452961068</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.49046462768496</v>
+        <v>13.63173930748824</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.385011430256762</v>
+        <v>10.31189964328614</v>
       </c>
       <c r="E3">
-        <v>9.170109509751727</v>
+        <v>15.41272278575937</v>
       </c>
       <c r="F3">
-        <v>19.79648858073071</v>
+        <v>30.70394629571991</v>
       </c>
       <c r="G3">
-        <v>21.02133247071248</v>
+        <v>30.038353843926</v>
       </c>
       <c r="H3">
-        <v>8.7627083125216</v>
+        <v>14.72314415169157</v>
       </c>
       <c r="I3">
-        <v>15.80222790064533</v>
+        <v>25.84644628663432</v>
       </c>
       <c r="J3">
-        <v>6.570240672876977</v>
+        <v>10.97771670818454</v>
       </c>
       <c r="K3">
-        <v>12.00966060806859</v>
+        <v>8.247175234760512</v>
       </c>
       <c r="L3">
-        <v>6.559371493632425</v>
+        <v>9.435719449368428</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.97954171292972</v>
+        <v>19.50525215757478</v>
       </c>
       <c r="O3">
-        <v>14.07601084847712</v>
+        <v>22.56011322036555</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.07468539280045</v>
+        <v>13.54917428245344</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.331566287345626</v>
+        <v>10.31677790713182</v>
       </c>
       <c r="E4">
-        <v>9.206007198318179</v>
+        <v>15.43712527500929</v>
       </c>
       <c r="F4">
-        <v>19.71795222499953</v>
+        <v>30.75098293579243</v>
       </c>
       <c r="G4">
-        <v>20.84825366149196</v>
+        <v>30.08040737683832</v>
       </c>
       <c r="H4">
-        <v>8.793492507747235</v>
+        <v>14.74946830123815</v>
       </c>
       <c r="I4">
-        <v>15.95033481392076</v>
+        <v>25.91101729694153</v>
       </c>
       <c r="J4">
-        <v>6.6032278823518</v>
+        <v>10.99105481800493</v>
       </c>
       <c r="K4">
-        <v>11.57491566401878</v>
+        <v>8.081300680277812</v>
       </c>
       <c r="L4">
-        <v>6.386946002957869</v>
+        <v>9.413146093767612</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.07502898888377</v>
+        <v>19.53744588314023</v>
       </c>
       <c r="O4">
-        <v>14.07981898577546</v>
+        <v>22.6024345154389</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.90126413921305</v>
+        <v>13.51589344958914</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.310279121547481</v>
+        <v>10.31910417764741</v>
       </c>
       <c r="E5">
-        <v>9.221460581006948</v>
+        <v>15.44748492608324</v>
       </c>
       <c r="F5">
-        <v>19.6893515402805</v>
+        <v>30.77166455135157</v>
       </c>
       <c r="G5">
-        <v>20.78222437173729</v>
+        <v>30.09952993064621</v>
       </c>
       <c r="H5">
-        <v>8.807129569878104</v>
+        <v>14.76069052071921</v>
       </c>
       <c r="I5">
-        <v>16.01253577099643</v>
+        <v>25.9382528786039</v>
       </c>
       <c r="J5">
-        <v>6.616975163078008</v>
+        <v>10.99666507286497</v>
       </c>
       <c r="K5">
-        <v>11.39260408645854</v>
+        <v>8.012873530798641</v>
       </c>
       <c r="L5">
-        <v>6.315740326360986</v>
+        <v>9.404221429073568</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.11465450990154</v>
+        <v>19.55096449475021</v>
       </c>
       <c r="O5">
-        <v>14.08377858479774</v>
+        <v>22.62069108283584</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.87223266323261</v>
+        <v>13.51039019477863</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.306774698111203</v>
+        <v>10.31951091162707</v>
       </c>
       <c r="E6">
-        <v>9.224076075654072</v>
+        <v>15.4492302505881</v>
       </c>
       <c r="F6">
-        <v>19.6848062425114</v>
+        <v>30.77519010738467</v>
       </c>
       <c r="G6">
-        <v>20.77153095468941</v>
+        <v>30.10282499694162</v>
       </c>
       <c r="H6">
-        <v>8.809459096906034</v>
+        <v>14.76258386297943</v>
       </c>
       <c r="I6">
-        <v>16.02297482387136</v>
+        <v>25.94283107451473</v>
       </c>
       <c r="J6">
-        <v>6.61927635630708</v>
+        <v>10.99760722678456</v>
       </c>
       <c r="K6">
-        <v>11.36202344877259</v>
+        <v>8.001464035739506</v>
       </c>
       <c r="L6">
-        <v>6.303863029033359</v>
+        <v>9.402756231124373</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.12127758115828</v>
+        <v>19.55323340254509</v>
       </c>
       <c r="O6">
-        <v>14.08457934413918</v>
+        <v>22.62378356968821</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.07236246083871</v>
+        <v>13.54872392415938</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.331277182528703</v>
+        <v>10.31680790901797</v>
       </c>
       <c r="E7">
-        <v>9.206212284038736</v>
+        <v>15.43726330583842</v>
       </c>
       <c r="F7">
-        <v>19.71755280286963</v>
+        <v>30.75125572774859</v>
       </c>
       <c r="G7">
-        <v>20.84734499148465</v>
+        <v>30.08065723736512</v>
       </c>
       <c r="H7">
-        <v>8.793672038682001</v>
+        <v>14.74961764368765</v>
       </c>
       <c r="I7">
-        <v>15.95116624247308</v>
+        <v>25.91138086909245</v>
       </c>
       <c r="J7">
-        <v>6.603412046299832</v>
+        <v>10.99112977120583</v>
       </c>
       <c r="K7">
-        <v>11.57247766077661</v>
+        <v>8.080381080533549</v>
       </c>
       <c r="L7">
-        <v>6.385989365985926</v>
+        <v>9.413024614499882</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.07556049473102</v>
+        <v>19.53762658135021</v>
       </c>
       <c r="O7">
-        <v>14.07986273438409</v>
+        <v>22.60267664020959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.91999963694553</v>
+        <v>13.72099908583542</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.443668074990441</v>
+        <v>10.30784819506214</v>
       </c>
       <c r="E8">
-        <v>9.134656197300325</v>
+        <v>15.38810110731427</v>
       </c>
       <c r="F8">
-        <v>19.89208333031829</v>
+        <v>30.6589318250496</v>
       </c>
       <c r="G8">
-        <v>21.22149931231168</v>
+        <v>30.00027695383073</v>
       </c>
       <c r="H8">
-        <v>8.733676997580723</v>
+        <v>14.69674462312881</v>
       </c>
       <c r="I8">
-        <v>15.65058342871237</v>
+        <v>25.78069209867862</v>
       </c>
       <c r="J8">
-        <v>6.536075744588081</v>
+        <v>10.96408010463011</v>
       </c>
       <c r="K8">
-        <v>12.45570936718282</v>
+        <v>8.421055526269207</v>
       </c>
       <c r="L8">
-        <v>6.739861486444242</v>
+        <v>9.460726946311654</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.88007021389561</v>
+        <v>19.47226088957532</v>
       </c>
       <c r="O8">
-        <v>14.08038223431644</v>
+        <v>22.51840784163933</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.44460202866865</v>
+        <v>14.06783564962402</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.678024828657525</v>
+        <v>10.30088722790366</v>
       </c>
       <c r="E9">
-        <v>9.021293093520821</v>
+        <v>15.30474879138554</v>
       </c>
       <c r="F9">
-        <v>20.34545930040354</v>
+        <v>30.52573649220693</v>
       </c>
       <c r="G9">
-        <v>22.09865482622592</v>
+        <v>29.90557817105891</v>
       </c>
       <c r="H9">
-        <v>8.65283837164344</v>
+        <v>14.60865227164001</v>
       </c>
       <c r="I9">
-        <v>15.12199524120937</v>
+        <v>25.55341401184412</v>
       </c>
       <c r="J9">
-        <v>6.41347525281772</v>
+        <v>10.91651723906108</v>
       </c>
       <c r="K9">
-        <v>14.01935092861363</v>
+        <v>9.12743310422313</v>
       </c>
       <c r="L9">
-        <v>7.397083703337254</v>
+        <v>9.56243874991811</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.51876387138368</v>
+        <v>19.35660462607769</v>
       </c>
       <c r="O9">
-        <v>14.1628067499853</v>
+        <v>22.38508741690259</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.47441579138047</v>
+        <v>14.32615222451117</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.857426938686483</v>
+        <v>10.30218393462986</v>
       </c>
       <c r="E10">
-        <v>8.955231835024142</v>
+        <v>15.25142452617461</v>
       </c>
       <c r="F10">
-        <v>20.74849831199059</v>
+        <v>30.45710036338796</v>
       </c>
       <c r="G10">
-        <v>22.830166067274</v>
+        <v>29.87452712062746</v>
       </c>
       <c r="H10">
-        <v>8.617863458561295</v>
+        <v>14.55341546850387</v>
       </c>
       <c r="I10">
-        <v>14.77321471802222</v>
+        <v>25.40402851155162</v>
       </c>
       <c r="J10">
-        <v>6.329014703762345</v>
+        <v>10.88488431255016</v>
       </c>
       <c r="K10">
-        <v>15.06262816132285</v>
+        <v>9.656876906412741</v>
       </c>
       <c r="L10">
-        <v>7.853189357815955</v>
+        <v>9.641747295686738</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.2663666432144</v>
+        <v>19.27920331115939</v>
       </c>
       <c r="O10">
-        <v>14.27712424627302</v>
+        <v>22.30663979584242</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.92237979595972</v>
+        <v>14.44400111051704</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.940330530749543</v>
+        <v>10.30415231746294</v>
       </c>
       <c r="E11">
-        <v>8.929099478066309</v>
+        <v>15.22887527038297</v>
       </c>
       <c r="F11">
-        <v>20.94734996525492</v>
+        <v>30.43222670724759</v>
       </c>
       <c r="G11">
-        <v>23.18151644714905</v>
+        <v>29.86878438902997</v>
       </c>
       <c r="H11">
-        <v>8.607697841906898</v>
+        <v>14.53034197820495</v>
       </c>
       <c r="I11">
-        <v>14.62377272587246</v>
+        <v>25.33987232149124</v>
       </c>
       <c r="J11">
-        <v>6.291778781686137</v>
+        <v>10.87120634234678</v>
       </c>
       <c r="K11">
-        <v>15.51398285836596</v>
+        <v>9.886766189016686</v>
       </c>
       <c r="L11">
-        <v>8.054155535979259</v>
+        <v>9.678731908237216</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.15429857327175</v>
+        <v>19.24562182608338</v>
       </c>
       <c r="O11">
-        <v>14.34163228301107</v>
+        <v>22.2751933620606</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.08900993931831</v>
+        <v>14.48864085488417</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.971886623071155</v>
+        <v>10.30509461847965</v>
       </c>
       <c r="E12">
-        <v>8.919782983980607</v>
+        <v>15.22058138217472</v>
       </c>
       <c r="F12">
-        <v>21.02489447240462</v>
+        <v>30.4237206063087</v>
       </c>
       <c r="G12">
-        <v>23.31719326156381</v>
+        <v>29.86781515013134</v>
       </c>
       <c r="H12">
-        <v>8.60471221138074</v>
+        <v>14.52189968683589</v>
       </c>
       <c r="I12">
-        <v>14.56856970644898</v>
+        <v>25.31612325306756</v>
       </c>
       <c r="J12">
-        <v>6.277846489722931</v>
+        <v>10.86612875676236</v>
       </c>
       <c r="K12">
-        <v>15.68154154178596</v>
+        <v>9.972207353002061</v>
       </c>
       <c r="L12">
-        <v>8.129271027373539</v>
+        <v>9.692859507525226</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.11225064931244</v>
+        <v>19.23313860425893</v>
       </c>
       <c r="O12">
-        <v>14.36792131661084</v>
+        <v>22.26389550760284</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.05325750131155</v>
+        <v>14.47902687832179</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.96508360558329</v>
+        <v>10.30488294090483</v>
       </c>
       <c r="E13">
-        <v>8.921763439363673</v>
+        <v>15.22235673157878</v>
       </c>
       <c r="F13">
-        <v>21.00809393014408</v>
+        <v>30.42551194435557</v>
       </c>
       <c r="G13">
-        <v>23.2878567107665</v>
+        <v>29.86797029164228</v>
       </c>
       <c r="H13">
-        <v>8.605316187940019</v>
+        <v>14.52370476260139</v>
       </c>
       <c r="I13">
-        <v>14.5803959059137</v>
+        <v>25.32121379392919</v>
       </c>
       <c r="J13">
-        <v>6.280839617465187</v>
+        <v>10.86721777741102</v>
       </c>
       <c r="K13">
-        <v>15.64560439564186</v>
+        <v>9.953878336462232</v>
       </c>
       <c r="L13">
-        <v>8.113138105084474</v>
+        <v>9.689811565769627</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.12128916848387</v>
+        <v>19.23581672427608</v>
       </c>
       <c r="O13">
-        <v>14.36217575356644</v>
+        <v>22.26630155488115</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.93614903336005</v>
+        <v>14.4476735938362</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.942923549969969</v>
+        <v>10.30422590242215</v>
       </c>
       <c r="E14">
-        <v>8.928321303462109</v>
+        <v>15.22818802004026</v>
       </c>
       <c r="F14">
-        <v>20.95368457379267</v>
+        <v>30.43150860823662</v>
       </c>
       <c r="G14">
-        <v>23.19262626322362</v>
+        <v>29.86868049412455</v>
       </c>
       <c r="H14">
-        <v>8.607434679311742</v>
+        <v>14.52964151210142</v>
       </c>
       <c r="I14">
-        <v>14.61920295758064</v>
+        <v>25.33790754426765</v>
       </c>
       <c r="J14">
-        <v>6.290629207316218</v>
+        <v>10.87078656519235</v>
       </c>
       <c r="K14">
-        <v>15.52783541564683</v>
+        <v>9.893828003106012</v>
       </c>
       <c r="L14">
-        <v>8.060355344117825</v>
+        <v>9.679891789449655</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.15083148288342</v>
+        <v>19.24459015193047</v>
       </c>
       <c r="O14">
-        <v>14.34375744570615</v>
+        <v>22.27425164807657</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.86402408330909</v>
+        <v>14.42846942878078</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.929370321044661</v>
+        <v>10.30384905150036</v>
       </c>
       <c r="E15">
-        <v>8.932414096267703</v>
+        <v>15.23179174397227</v>
       </c>
       <c r="F15">
-        <v>20.92064977417715</v>
+        <v>30.43530063361456</v>
       </c>
       <c r="G15">
-        <v>23.1346357057814</v>
+        <v>29.86927247836751</v>
       </c>
       <c r="H15">
-        <v>8.608845955085922</v>
+        <v>14.53331637159028</v>
       </c>
       <c r="I15">
-        <v>14.64315602251007</v>
+        <v>25.34820395940777</v>
       </c>
       <c r="J15">
-        <v>6.296647440996801</v>
+        <v>10.87298581717346</v>
       </c>
       <c r="K15">
-        <v>15.45526061275716</v>
+        <v>9.856834384006143</v>
       </c>
       <c r="L15">
-        <v>8.027894662920893</v>
+        <v>9.673831328739597</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.16897761277688</v>
+        <v>19.24999449458275</v>
       </c>
       <c r="O15">
-        <v>14.33271990622296</v>
+        <v>22.27920079414025</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.44472261015063</v>
+        <v>14.31845427516861</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.852032979252173</v>
+        <v>10.30208292513454</v>
       </c>
       <c r="E16">
-        <v>8.957019839222108</v>
+        <v>15.25293249424779</v>
       </c>
       <c r="F16">
-        <v>20.73581625240503</v>
+        <v>30.4588536857793</v>
       </c>
       <c r="G16">
-        <v>22.80757479360094</v>
+        <v>29.87507112119905</v>
       </c>
       <c r="H16">
-        <v>8.618646612080184</v>
+        <v>14.55496468810718</v>
       </c>
       <c r="I16">
-        <v>14.78317174859373</v>
+        <v>25.40829765366439</v>
       </c>
       <c r="J16">
-        <v>6.331471816386164</v>
+        <v>10.88579249139954</v>
       </c>
       <c r="K16">
-        <v>15.03266173523398</v>
+        <v>9.641629290624538</v>
       </c>
       <c r="L16">
-        <v>7.839920224801028</v>
+        <v>9.639347825416611</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.27374539554113</v>
+        <v>19.28143064153943</v>
       </c>
       <c r="O16">
-        <v>14.27316558531438</v>
+        <v>22.30878025881352</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.18219893696974</v>
+        <v>14.25102480668211</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.804903191328335</v>
+        <v>10.30135162625518</v>
       </c>
       <c r="E17">
-        <v>8.973129463107767</v>
+        <v>15.2663387379266</v>
       </c>
       <c r="F17">
-        <v>20.62641043406821</v>
+        <v>30.47492901848297</v>
       </c>
       <c r="G17">
-        <v>22.61166362522389</v>
+        <v>29.88077566316392</v>
       </c>
       <c r="H17">
-        <v>8.626156935196997</v>
+        <v>14.56877115108239</v>
       </c>
       <c r="I17">
-        <v>14.87147008761059</v>
+        <v>25.44613577938252</v>
       </c>
       <c r="J17">
-        <v>6.353137444419264</v>
+        <v>10.89383103250347</v>
       </c>
       <c r="K17">
-        <v>14.76744373549416</v>
+        <v>9.506773078618103</v>
       </c>
       <c r="L17">
-        <v>7.722897141784149</v>
+        <v>9.618419875897786</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.33871709910012</v>
+        <v>19.30113225095873</v>
       </c>
       <c r="O17">
-        <v>14.23987956055299</v>
+        <v>22.32801263438702</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.02927469738033</v>
+        <v>14.21227522770187</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.777918447131491</v>
+        <v>10.30106083753661</v>
       </c>
       <c r="E18">
-        <v>8.982763219205912</v>
+        <v>15.27421047704362</v>
       </c>
       <c r="F18">
-        <v>20.56494231196434</v>
+        <v>30.48477276777222</v>
       </c>
       <c r="G18">
-        <v>22.50073289327034</v>
+        <v>29.88484582582613</v>
       </c>
       <c r="H18">
-        <v>8.631015068310194</v>
+        <v>14.57690561015218</v>
       </c>
       <c r="I18">
-        <v>14.92312071625492</v>
+        <v>25.46825699949246</v>
       </c>
       <c r="J18">
-        <v>6.365710677314167</v>
+        <v>10.89852163108581</v>
       </c>
       <c r="K18">
-        <v>14.61271062450403</v>
+        <v>9.428177818583553</v>
       </c>
       <c r="L18">
-        <v>7.654977355885006</v>
+        <v>9.606468515354253</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.37634613638473</v>
+        <v>19.31261745267226</v>
       </c>
       <c r="O18">
-        <v>14.22190772356878</v>
+        <v>22.33947362928282</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.97716805588526</v>
+        <v>14.19916223740831</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.768803738584806</v>
+        <v>10.30098471931155</v>
       </c>
       <c r="E19">
-        <v>8.986087766249835</v>
+        <v>15.27690335279992</v>
       </c>
       <c r="F19">
-        <v>20.54438036072261</v>
+        <v>30.48820833276281</v>
       </c>
       <c r="G19">
-        <v>22.46347583036131</v>
+        <v>29.88635941999203</v>
       </c>
       <c r="H19">
-        <v>8.632751281998038</v>
+        <v>14.57969301250638</v>
       </c>
       <c r="I19">
-        <v>14.94075531349241</v>
+        <v>25.47580833465285</v>
       </c>
       <c r="J19">
-        <v>6.369987019837206</v>
+        <v>10.90012131464611</v>
       </c>
       <c r="K19">
-        <v>14.55994577132508</v>
+        <v>9.401391223541546</v>
       </c>
       <c r="L19">
-        <v>7.631877528247659</v>
+        <v>9.6024369763072</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.38913134042827</v>
+        <v>19.31653251015944</v>
       </c>
       <c r="O19">
-        <v>14.21602232521882</v>
+        <v>22.3434226426</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.210344975677</v>
+        <v>14.25819952410296</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.809907673478112</v>
+        <v>10.30141604606089</v>
       </c>
       <c r="E20">
-        <v>8.971376375290758</v>
+        <v>15.26489498035912</v>
       </c>
       <c r="F20">
-        <v>20.63790572807378</v>
+        <v>30.47315591706196</v>
       </c>
       <c r="G20">
-        <v>22.63233765805593</v>
+        <v>29.88008673716263</v>
       </c>
       <c r="H20">
-        <v>8.625301455947119</v>
+        <v>14.5672814204836</v>
       </c>
       <c r="I20">
-        <v>14.86198075776016</v>
+        <v>25.44207082947961</v>
       </c>
       <c r="J20">
-        <v>6.350819553913832</v>
+        <v>10.89296838051231</v>
       </c>
       <c r="K20">
-        <v>14.7959031207555</v>
+        <v>9.521235594018467</v>
       </c>
       <c r="L20">
-        <v>7.735418084814551</v>
+        <v>9.620638865320394</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.33177398170703</v>
+        <v>19.29901911536479</v>
       </c>
       <c r="O20">
-        <v>14.24330100429981</v>
+        <v>22.32592401161964</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.97062853306041</v>
+        <v>14.45688274616652</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.949428276085873</v>
+        <v>10.30441355713189</v>
       </c>
       <c r="E21">
-        <v>8.926379251140895</v>
+        <v>15.22646858422748</v>
       </c>
       <c r="F21">
-        <v>20.96960494716316</v>
+        <v>30.42972246542119</v>
       </c>
       <c r="G21">
-        <v>23.22052680939766</v>
+        <v>29.86843918038676</v>
       </c>
       <c r="H21">
-        <v>8.606788676125333</v>
+        <v>14.5278897367049</v>
       </c>
       <c r="I21">
-        <v>14.6077662074419</v>
+        <v>25.33298938814746</v>
       </c>
       <c r="J21">
-        <v>6.287749222922145</v>
+        <v>10.86973556174831</v>
       </c>
       <c r="K21">
-        <v>15.56251829873251</v>
+        <v>9.911510283997059</v>
       </c>
       <c r="L21">
-        <v>8.075886028709094</v>
+        <v>9.682802213318748</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.14214365144012</v>
+        <v>19.24200685705233</v>
       </c>
       <c r="O21">
-        <v>14.34911634888829</v>
+        <v>22.27189994765723</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.44999135793714</v>
+        <v>14.58679280289332</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.041548542569763</v>
+        <v>10.30751972107803</v>
       </c>
       <c r="E22">
-        <v>8.900355077138848</v>
+        <v>15.20278262625482</v>
       </c>
       <c r="F22">
-        <v>21.19946992396582</v>
+        <v>30.40665769966514</v>
       </c>
       <c r="G22">
-        <v>23.62023677239877</v>
+        <v>29.86785223916746</v>
       </c>
       <c r="H22">
-        <v>8.599742972687736</v>
+        <v>14.50386518019956</v>
       </c>
       <c r="I22">
-        <v>14.44974274212104</v>
+        <v>25.26487746610644</v>
       </c>
       <c r="J22">
-        <v>6.247508079045505</v>
+        <v>10.85514570862973</v>
       </c>
       <c r="K22">
-        <v>16.04396099417662</v>
+        <v>10.15716270027624</v>
       </c>
       <c r="L22">
-        <v>8.292637159271921</v>
+        <v>9.724138729409965</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.02047911911825</v>
+        <v>19.20610585020881</v>
       </c>
       <c r="O22">
-        <v>14.42914847736682</v>
+        <v>22.24014916116861</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.19576488501275</v>
+        <v>14.51746367630768</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.992304273794225</v>
+        <v>10.3057573960063</v>
       </c>
       <c r="E23">
-        <v>8.913929705910325</v>
+        <v>15.21529381595976</v>
       </c>
       <c r="F23">
-        <v>21.07558675948038</v>
+        <v>30.41848096621918</v>
       </c>
       <c r="G23">
-        <v>23.40552053167118</v>
+        <v>29.86752290585139</v>
       </c>
       <c r="H23">
-        <v>8.603028279312257</v>
+        <v>14.51653021666281</v>
       </c>
       <c r="I23">
-        <v>14.53331769360503</v>
+        <v>25.30093949800455</v>
       </c>
       <c r="J23">
-        <v>6.268896741052488</v>
+        <v>10.86287836221811</v>
       </c>
       <c r="K23">
-        <v>15.78880178921677</v>
+        <v>10.02692566650586</v>
       </c>
       <c r="L23">
-        <v>8.177494442802324</v>
+        <v>9.702014469007688</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.0852078057515</v>
+        <v>19.22514275088326</v>
       </c>
       <c r="O23">
-        <v>14.38541869535602</v>
+        <v>22.25676952401314</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.19762636392973</v>
+        <v>14.25495578015786</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.807644800189489</v>
+        <v>10.30138651795233</v>
       </c>
       <c r="E24">
-        <v>8.97216778840664</v>
+        <v>15.26554719130968</v>
       </c>
       <c r="F24">
-        <v>20.63270425032562</v>
+        <v>30.4739556615916</v>
       </c>
       <c r="G24">
-        <v>22.6229856256344</v>
+        <v>29.8803957381467</v>
       </c>
       <c r="H24">
-        <v>8.625686537902503</v>
+        <v>14.56795431421836</v>
       </c>
       <c r="I24">
-        <v>14.86626812637252</v>
+        <v>25.44390744828999</v>
       </c>
       <c r="J24">
-        <v>6.351867106438065</v>
+        <v>10.8933581701033</v>
       </c>
       <c r="K24">
-        <v>14.78304365737708</v>
+        <v>9.5147004040195</v>
       </c>
       <c r="L24">
-        <v>7.729759361306257</v>
+        <v>9.61963540916711</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.33491210517569</v>
+        <v>19.29997397023571</v>
       </c>
       <c r="O24">
-        <v>14.24175054649116</v>
+        <v>22.32686701944653</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.04764243139881</v>
+        <v>13.97324841812893</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.613262316781012</v>
+        <v>10.30164011417437</v>
       </c>
       <c r="E25">
-        <v>9.048994751932547</v>
+        <v>15.32590475052233</v>
       </c>
       <c r="F25">
-        <v>20.21065452848214</v>
+        <v>30.55664013854091</v>
       </c>
       <c r="G25">
-        <v>21.84599020841662</v>
+        <v>29.92443999434404</v>
       </c>
       <c r="H25">
-        <v>8.670566010132589</v>
+        <v>14.63081650360562</v>
       </c>
       <c r="I25">
-        <v>15.25823941464594</v>
+        <v>25.61180275610493</v>
       </c>
       <c r="J25">
-        <v>6.445645515451935</v>
+        <v>10.92880055704584</v>
       </c>
       <c r="K25">
-        <v>13.61472192105997</v>
+        <v>8.923027299042349</v>
       </c>
       <c r="L25">
-        <v>7.223710567493264</v>
+        <v>9.534088757581411</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.61418674587102</v>
+        <v>19.38655848229841</v>
       </c>
       <c r="O25">
-        <v>14.13135708977668</v>
+        <v>22.4177315990006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.768360054235</v>
+        <v>12.14064979140923</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.30614043403994</v>
+        <v>6.47511173987424</v>
       </c>
       <c r="E2">
-        <v>15.37566571272588</v>
+        <v>9.117064089654514</v>
       </c>
       <c r="F2">
-        <v>30.63715244501142</v>
+        <v>19.9467919688382</v>
       </c>
       <c r="G2">
-        <v>29.982748526454</v>
+        <v>21.33256390017007</v>
       </c>
       <c r="H2">
-        <v>14.68347457919492</v>
+        <v>8.719841297316124</v>
       </c>
       <c r="I2">
-        <v>25.74724792094496</v>
+        <v>15.57317687198849</v>
       </c>
       <c r="J2">
-        <v>10.95712308390268</v>
+        <v>6.518475527018117</v>
       </c>
       <c r="K2">
-        <v>8.511301873186509</v>
+        <v>12.68376779610921</v>
       </c>
       <c r="L2">
-        <v>9.474218825952276</v>
+        <v>6.83344528670969</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.45540016240225</v>
+        <v>12.82860898196415</v>
       </c>
       <c r="O2">
-        <v>22.49773452961068</v>
+        <v>14.08587290916832</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.63173930748824</v>
+        <v>11.490464627685</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.31189964328614</v>
+        <v>6.385011430256757</v>
       </c>
       <c r="E3">
-        <v>15.41272278575937</v>
+        <v>9.170109509751789</v>
       </c>
       <c r="F3">
-        <v>30.70394629571991</v>
+        <v>19.79648858073076</v>
       </c>
       <c r="G3">
-        <v>30.038353843926</v>
+        <v>21.02133247071254</v>
       </c>
       <c r="H3">
-        <v>14.72314415169157</v>
+        <v>8.7627083125216</v>
       </c>
       <c r="I3">
-        <v>25.84644628663432</v>
+        <v>15.80222790064539</v>
       </c>
       <c r="J3">
-        <v>10.97771670818454</v>
+        <v>6.570240672877012</v>
       </c>
       <c r="K3">
-        <v>8.247175234760512</v>
+        <v>12.00966060806857</v>
       </c>
       <c r="L3">
-        <v>9.435719449368428</v>
+        <v>6.559371493632457</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.50525215757478</v>
+        <v>12.97954171292972</v>
       </c>
       <c r="O3">
-        <v>22.56011322036555</v>
+        <v>14.07601084847714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.54917428245344</v>
+        <v>11.07468539280047</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.31677790713182</v>
+        <v>6.331566287345626</v>
       </c>
       <c r="E4">
-        <v>15.43712527500929</v>
+        <v>9.206007198318245</v>
       </c>
       <c r="F4">
-        <v>30.75098293579243</v>
+        <v>19.71795222499942</v>
       </c>
       <c r="G4">
-        <v>30.08040737683832</v>
+        <v>20.84825366149173</v>
       </c>
       <c r="H4">
-        <v>14.74946830123815</v>
+        <v>8.793492507747182</v>
       </c>
       <c r="I4">
-        <v>25.91101729694153</v>
+        <v>15.95033481392076</v>
       </c>
       <c r="J4">
-        <v>10.99105481800493</v>
+        <v>6.603227882351868</v>
       </c>
       <c r="K4">
-        <v>8.081300680277812</v>
+        <v>11.57491566401881</v>
       </c>
       <c r="L4">
-        <v>9.413146093767612</v>
+        <v>6.386946002957826</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.53744588314023</v>
+        <v>13.07502898888374</v>
       </c>
       <c r="O4">
-        <v>22.6024345154389</v>
+        <v>14.07981898577538</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.51589344958914</v>
+        <v>10.90126413921311</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.31910417764741</v>
+        <v>6.310279121547437</v>
       </c>
       <c r="E5">
-        <v>15.44748492608324</v>
+        <v>9.221460581007012</v>
       </c>
       <c r="F5">
-        <v>30.77166455135157</v>
+        <v>19.68935154028057</v>
       </c>
       <c r="G5">
-        <v>30.09952993064621</v>
+        <v>20.7822243717375</v>
       </c>
       <c r="H5">
-        <v>14.76069052071921</v>
+        <v>8.80712956987816</v>
       </c>
       <c r="I5">
-        <v>25.9382528786039</v>
+        <v>16.01253577099657</v>
       </c>
       <c r="J5">
-        <v>10.99666507286497</v>
+        <v>6.616975163078076</v>
       </c>
       <c r="K5">
-        <v>8.012873530798641</v>
+        <v>11.39260408645851</v>
       </c>
       <c r="L5">
-        <v>9.404221429073568</v>
+        <v>6.315740326360975</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.55096449475021</v>
+        <v>13.1146545099016</v>
       </c>
       <c r="O5">
-        <v>22.62069108283584</v>
+        <v>14.08377858479783</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.51039019477863</v>
+        <v>10.87223266323263</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.31951091162707</v>
+        <v>6.306774698111246</v>
       </c>
       <c r="E6">
-        <v>15.4492302505881</v>
+        <v>9.224076075653942</v>
       </c>
       <c r="F6">
-        <v>30.77519010738467</v>
+        <v>19.68480624251161</v>
       </c>
       <c r="G6">
-        <v>30.10282499694162</v>
+        <v>20.77153095468941</v>
       </c>
       <c r="H6">
-        <v>14.76258386297943</v>
+        <v>8.809459096906153</v>
       </c>
       <c r="I6">
-        <v>25.94283107451473</v>
+        <v>16.02297482387145</v>
       </c>
       <c r="J6">
-        <v>10.99760722678456</v>
+        <v>6.619276356306949</v>
       </c>
       <c r="K6">
-        <v>8.001464035739506</v>
+        <v>11.36202344877253</v>
       </c>
       <c r="L6">
-        <v>9.402756231124373</v>
+        <v>6.303863029033356</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.55323340254509</v>
+        <v>13.12127758115828</v>
       </c>
       <c r="O6">
-        <v>22.62378356968821</v>
+        <v>14.08457934413926</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.54872392415938</v>
+        <v>11.07236246083872</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.31680790901797</v>
+        <v>6.331277182528586</v>
       </c>
       <c r="E7">
-        <v>15.43726330583842</v>
+        <v>9.206212284038735</v>
       </c>
       <c r="F7">
-        <v>30.75125572774859</v>
+        <v>19.71755280286952</v>
       </c>
       <c r="G7">
-        <v>30.08065723736512</v>
+        <v>20.84734499148457</v>
       </c>
       <c r="H7">
-        <v>14.74961764368765</v>
+        <v>8.793672038682001</v>
       </c>
       <c r="I7">
-        <v>25.91138086909245</v>
+        <v>15.95116624247308</v>
       </c>
       <c r="J7">
-        <v>10.99112977120583</v>
+        <v>6.603412046299868</v>
       </c>
       <c r="K7">
-        <v>8.080381080533549</v>
+        <v>11.57247766077659</v>
       </c>
       <c r="L7">
-        <v>9.413024614499882</v>
+        <v>6.385989365985889</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.53762658135021</v>
+        <v>13.07556049473102</v>
       </c>
       <c r="O7">
-        <v>22.60267664020959</v>
+        <v>14.07986273438407</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.72099908583542</v>
+        <v>11.91999963694552</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.30784819506214</v>
+        <v>6.443668074990478</v>
       </c>
       <c r="E8">
-        <v>15.38810110731427</v>
+        <v>9.134656197300259</v>
       </c>
       <c r="F8">
-        <v>30.6589318250496</v>
+        <v>19.89208333031824</v>
       </c>
       <c r="G8">
-        <v>30.00027695383073</v>
+        <v>21.22149931231168</v>
       </c>
       <c r="H8">
-        <v>14.69674462312881</v>
+        <v>8.733676997580602</v>
       </c>
       <c r="I8">
-        <v>25.78069209867862</v>
+        <v>15.65058342871227</v>
       </c>
       <c r="J8">
-        <v>10.96408010463011</v>
+        <v>6.536075744588048</v>
       </c>
       <c r="K8">
-        <v>8.421055526269207</v>
+        <v>12.45570936718284</v>
       </c>
       <c r="L8">
-        <v>9.460726946311654</v>
+        <v>6.739861486444239</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.47226088957532</v>
+        <v>12.88007021389557</v>
       </c>
       <c r="O8">
-        <v>22.51840784163933</v>
+        <v>14.08038223431639</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.06783564962402</v>
+        <v>13.44460202866863</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.30088722790366</v>
+        <v>6.678024828657568</v>
       </c>
       <c r="E9">
-        <v>15.30474879138554</v>
+        <v>9.021293093520882</v>
       </c>
       <c r="F9">
-        <v>30.52573649220693</v>
+        <v>20.34545930040341</v>
       </c>
       <c r="G9">
-        <v>29.90557817105891</v>
+        <v>22.09865482622586</v>
       </c>
       <c r="H9">
-        <v>14.60865227164001</v>
+        <v>8.652838371643325</v>
       </c>
       <c r="I9">
-        <v>25.55341401184412</v>
+        <v>15.12199524120933</v>
       </c>
       <c r="J9">
-        <v>10.91651723906108</v>
+        <v>6.413475252817753</v>
       </c>
       <c r="K9">
-        <v>9.12743310422313</v>
+        <v>14.01935092861371</v>
       </c>
       <c r="L9">
-        <v>9.56243874991811</v>
+        <v>7.397083703337265</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.35660462607769</v>
+        <v>12.51876387138368</v>
       </c>
       <c r="O9">
-        <v>22.38508741690259</v>
+        <v>14.16280674998523</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.32615222451117</v>
+        <v>14.47441579138048</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.30218393462986</v>
+        <v>6.857426938686463</v>
       </c>
       <c r="E10">
-        <v>15.25142452617461</v>
+        <v>8.955231835024147</v>
       </c>
       <c r="F10">
-        <v>30.45710036338796</v>
+        <v>20.74849831199063</v>
       </c>
       <c r="G10">
-        <v>29.87452712062746</v>
+        <v>22.83016606727413</v>
       </c>
       <c r="H10">
-        <v>14.55341546850387</v>
+        <v>8.617863458561299</v>
       </c>
       <c r="I10">
-        <v>25.40402851155162</v>
+        <v>14.77321471802222</v>
       </c>
       <c r="J10">
-        <v>10.88488431255016</v>
+        <v>6.329014703762311</v>
       </c>
       <c r="K10">
-        <v>9.656876906412741</v>
+        <v>15.0626281613228</v>
       </c>
       <c r="L10">
-        <v>9.641747295686738</v>
+        <v>7.853189357815974</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.27920331115939</v>
+        <v>12.2663666432144</v>
       </c>
       <c r="O10">
-        <v>22.30663979584242</v>
+        <v>14.2771242462731</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.44400111051704</v>
+        <v>14.92237979595971</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.30415231746294</v>
+        <v>6.940330530749605</v>
       </c>
       <c r="E11">
-        <v>15.22887527038297</v>
+        <v>8.929099478066311</v>
       </c>
       <c r="F11">
-        <v>30.43222670724759</v>
+        <v>20.94734996525482</v>
       </c>
       <c r="G11">
-        <v>29.86878438902997</v>
+        <v>23.18151644714902</v>
       </c>
       <c r="H11">
-        <v>14.53034197820495</v>
+        <v>8.607697841906752</v>
       </c>
       <c r="I11">
-        <v>25.33987232149124</v>
+        <v>14.62377272587242</v>
       </c>
       <c r="J11">
-        <v>10.87120634234678</v>
+        <v>6.291778781686137</v>
       </c>
       <c r="K11">
-        <v>9.886766189016686</v>
+        <v>15.51398285836599</v>
       </c>
       <c r="L11">
-        <v>9.678731908237216</v>
+        <v>8.054155535979234</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.24562182608338</v>
+        <v>12.15429857327168</v>
       </c>
       <c r="O11">
-        <v>22.2751933620606</v>
+        <v>14.341632283011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.48864085488417</v>
+        <v>15.0890099393183</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.30509461847965</v>
+        <v>6.971886623071073</v>
       </c>
       <c r="E12">
-        <v>15.22058138217472</v>
+        <v>8.919782983980605</v>
       </c>
       <c r="F12">
-        <v>30.4237206063087</v>
+        <v>21.02489447240465</v>
       </c>
       <c r="G12">
-        <v>29.86781515013134</v>
+        <v>23.31719326156392</v>
       </c>
       <c r="H12">
-        <v>14.52189968683589</v>
+        <v>8.604712211380789</v>
       </c>
       <c r="I12">
-        <v>25.31612325306756</v>
+        <v>14.56856970644904</v>
       </c>
       <c r="J12">
-        <v>10.86612875676236</v>
+        <v>6.277846489722965</v>
       </c>
       <c r="K12">
-        <v>9.972207353002061</v>
+        <v>15.68154154178595</v>
       </c>
       <c r="L12">
-        <v>9.692859507525226</v>
+        <v>8.129271027373552</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.23313860425893</v>
+        <v>12.11225064931247</v>
       </c>
       <c r="O12">
-        <v>22.26389550760284</v>
+        <v>14.3679213166109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.47902687832179</v>
+        <v>15.0532575013115</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.30488294090483</v>
+        <v>6.965083605583228</v>
       </c>
       <c r="E13">
-        <v>15.22235673157878</v>
+        <v>8.921763439363778</v>
       </c>
       <c r="F13">
-        <v>30.42551194435557</v>
+        <v>21.00809393014405</v>
       </c>
       <c r="G13">
-        <v>29.86797029164228</v>
+        <v>23.28785671076646</v>
       </c>
       <c r="H13">
-        <v>14.52370476260139</v>
+        <v>8.605316187940019</v>
       </c>
       <c r="I13">
-        <v>25.32121379392919</v>
+        <v>14.58039590591373</v>
       </c>
       <c r="J13">
-        <v>10.86721777741102</v>
+        <v>6.280839617465318</v>
       </c>
       <c r="K13">
-        <v>9.953878336462232</v>
+        <v>15.6456043956419</v>
       </c>
       <c r="L13">
-        <v>9.689811565769627</v>
+        <v>8.113138105084472</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.23581672427608</v>
+        <v>12.1212891684839</v>
       </c>
       <c r="O13">
-        <v>22.26630155488115</v>
+        <v>14.36217575356643</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.4476735938362</v>
+        <v>14.93614903336002</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.30422590242215</v>
+        <v>6.942923549969896</v>
       </c>
       <c r="E14">
-        <v>15.22818802004026</v>
+        <v>8.928321303462047</v>
       </c>
       <c r="F14">
-        <v>30.43150860823662</v>
+        <v>20.95368457379269</v>
       </c>
       <c r="G14">
-        <v>29.86868049412455</v>
+        <v>23.19262626322368</v>
       </c>
       <c r="H14">
-        <v>14.52964151210142</v>
+        <v>8.607434679311748</v>
       </c>
       <c r="I14">
-        <v>25.33790754426765</v>
+        <v>14.61920295758063</v>
       </c>
       <c r="J14">
-        <v>10.87078656519235</v>
+        <v>6.290629207316218</v>
       </c>
       <c r="K14">
-        <v>9.893828003106012</v>
+        <v>15.52783541564684</v>
       </c>
       <c r="L14">
-        <v>9.679891789449655</v>
+        <v>8.060355344117834</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.24459015193047</v>
+        <v>12.15083148288345</v>
       </c>
       <c r="O14">
-        <v>22.27425164807657</v>
+        <v>14.3437574457062</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.42846942878078</v>
+        <v>14.86402408330908</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.30384905150036</v>
+        <v>6.929370321044691</v>
       </c>
       <c r="E15">
-        <v>15.23179174397227</v>
+        <v>8.932414096267761</v>
       </c>
       <c r="F15">
-        <v>30.43530063361456</v>
+        <v>20.92064977417704</v>
       </c>
       <c r="G15">
-        <v>29.86927247836751</v>
+        <v>23.13463570578131</v>
       </c>
       <c r="H15">
-        <v>14.53331637159028</v>
+        <v>8.608845955085922</v>
       </c>
       <c r="I15">
-        <v>25.34820395940777</v>
+        <v>14.64315602251</v>
       </c>
       <c r="J15">
-        <v>10.87298581717346</v>
+        <v>6.296647440996833</v>
       </c>
       <c r="K15">
-        <v>9.856834384006143</v>
+        <v>15.45526061275719</v>
       </c>
       <c r="L15">
-        <v>9.673831328739597</v>
+        <v>8.027894662920893</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.24999449458275</v>
+        <v>12.16897761277688</v>
       </c>
       <c r="O15">
-        <v>22.27920079414025</v>
+        <v>14.33271990622291</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.31845427516861</v>
+        <v>14.44472261015065</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.30208292513454</v>
+        <v>6.852032979252179</v>
       </c>
       <c r="E16">
-        <v>15.25293249424779</v>
+        <v>8.957019839222228</v>
       </c>
       <c r="F16">
-        <v>30.4588536857793</v>
+        <v>20.73581625240496</v>
       </c>
       <c r="G16">
-        <v>29.87507112119905</v>
+        <v>22.80757479360085</v>
       </c>
       <c r="H16">
-        <v>14.55496468810718</v>
+        <v>8.618646612080187</v>
       </c>
       <c r="I16">
-        <v>25.40829765366439</v>
+        <v>14.78317174859368</v>
       </c>
       <c r="J16">
-        <v>10.88579249139954</v>
+        <v>6.331471816386267</v>
       </c>
       <c r="K16">
-        <v>9.641629290624538</v>
+        <v>15.03266173523399</v>
       </c>
       <c r="L16">
-        <v>9.639347825416611</v>
+        <v>7.839920224801032</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.28143064153943</v>
+        <v>12.27374539554109</v>
       </c>
       <c r="O16">
-        <v>22.30878025881352</v>
+        <v>14.27316558531432</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.25102480668211</v>
+        <v>14.1821989369697</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.30135162625518</v>
+        <v>6.804903191328207</v>
       </c>
       <c r="E17">
-        <v>15.2663387379266</v>
+        <v>8.973129463107703</v>
       </c>
       <c r="F17">
-        <v>30.47492901848297</v>
+        <v>20.62641043406819</v>
       </c>
       <c r="G17">
-        <v>29.88077566316392</v>
+        <v>22.61166362522401</v>
       </c>
       <c r="H17">
-        <v>14.56877115108239</v>
+        <v>8.626156935197038</v>
       </c>
       <c r="I17">
-        <v>25.44613577938252</v>
+        <v>14.87147008761064</v>
       </c>
       <c r="J17">
-        <v>10.89383103250347</v>
+        <v>6.353137444419296</v>
       </c>
       <c r="K17">
-        <v>9.506773078618103</v>
+        <v>14.76744373549414</v>
       </c>
       <c r="L17">
-        <v>9.618419875897786</v>
+        <v>7.722897141784153</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.30113225095873</v>
+        <v>12.33871709910016</v>
       </c>
       <c r="O17">
-        <v>22.32801263438702</v>
+        <v>14.23987956055305</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.21227522770187</v>
+        <v>14.02927469738032</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.30106083753661</v>
+        <v>6.777918447131364</v>
       </c>
       <c r="E18">
-        <v>15.27421047704362</v>
+        <v>8.982763219205792</v>
       </c>
       <c r="F18">
-        <v>30.48477276777222</v>
+        <v>20.56494231196426</v>
       </c>
       <c r="G18">
-        <v>29.88484582582613</v>
+        <v>22.50073289327038</v>
       </c>
       <c r="H18">
-        <v>14.57690561015218</v>
+        <v>8.631015068310145</v>
       </c>
       <c r="I18">
-        <v>25.46825699949246</v>
+        <v>14.92312071625489</v>
       </c>
       <c r="J18">
-        <v>10.89852163108581</v>
+        <v>6.3657106773142</v>
       </c>
       <c r="K18">
-        <v>9.428177818583553</v>
+        <v>14.61271062450401</v>
       </c>
       <c r="L18">
-        <v>9.606468515354253</v>
+        <v>7.654977355885006</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.31261745267226</v>
+        <v>12.37634613638469</v>
       </c>
       <c r="O18">
-        <v>22.33947362928282</v>
+        <v>14.22190772356877</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.19916223740831</v>
+        <v>13.97716805588528</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.30098471931155</v>
+        <v>6.768803738584886</v>
       </c>
       <c r="E19">
-        <v>15.27690335279992</v>
+        <v>8.986087766249899</v>
       </c>
       <c r="F19">
-        <v>30.48820833276281</v>
+        <v>20.5443803607226</v>
       </c>
       <c r="G19">
-        <v>29.88635941999203</v>
+        <v>22.46347583036132</v>
       </c>
       <c r="H19">
-        <v>14.57969301250638</v>
+        <v>8.632751281997979</v>
       </c>
       <c r="I19">
-        <v>25.47580833465285</v>
+        <v>14.94075531349243</v>
       </c>
       <c r="J19">
-        <v>10.90012131464611</v>
+        <v>6.369987019837206</v>
       </c>
       <c r="K19">
-        <v>9.401391223541546</v>
+        <v>14.5599457713251</v>
       </c>
       <c r="L19">
-        <v>9.6024369763072</v>
+        <v>7.631877528247638</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.31653251015944</v>
+        <v>12.38913134042827</v>
       </c>
       <c r="O19">
-        <v>22.3434226426</v>
+        <v>14.21602232521876</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.25819952410296</v>
+        <v>14.21034497567697</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.30141604606089</v>
+        <v>6.809907673478084</v>
       </c>
       <c r="E20">
-        <v>15.26489498035912</v>
+        <v>8.971376375290809</v>
       </c>
       <c r="F20">
-        <v>30.47315591706196</v>
+        <v>20.63790572807361</v>
       </c>
       <c r="G20">
-        <v>29.88008673716263</v>
+        <v>22.63233765805577</v>
       </c>
       <c r="H20">
-        <v>14.5672814204836</v>
+        <v>8.625301455947017</v>
       </c>
       <c r="I20">
-        <v>25.44207082947961</v>
+        <v>14.86198075776006</v>
       </c>
       <c r="J20">
-        <v>10.89296838051231</v>
+        <v>6.350819553913929</v>
       </c>
       <c r="K20">
-        <v>9.521235594018467</v>
+        <v>14.79590312075554</v>
       </c>
       <c r="L20">
-        <v>9.620638865320394</v>
+        <v>7.735418084814563</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.29901911536479</v>
+        <v>12.33177398170697</v>
       </c>
       <c r="O20">
-        <v>22.32592401161964</v>
+        <v>14.2433010042997</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.45688274616652</v>
+        <v>14.97062853306043</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.30441355713189</v>
+        <v>6.949428276085827</v>
       </c>
       <c r="E21">
-        <v>15.22646858422748</v>
+        <v>8.926379251141077</v>
       </c>
       <c r="F21">
-        <v>30.42972246542119</v>
+        <v>20.96960494716307</v>
       </c>
       <c r="G21">
-        <v>29.86843918038676</v>
+        <v>23.22052680939756</v>
       </c>
       <c r="H21">
-        <v>14.5278897367049</v>
+        <v>8.606788676125237</v>
       </c>
       <c r="I21">
-        <v>25.33298938814746</v>
+        <v>14.60776620744188</v>
       </c>
       <c r="J21">
-        <v>10.86973556174831</v>
+        <v>6.287749222922246</v>
       </c>
       <c r="K21">
-        <v>9.911510283997059</v>
+        <v>15.56251829873256</v>
       </c>
       <c r="L21">
-        <v>9.682802213318748</v>
+        <v>8.075886028709089</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.24200685705233</v>
+        <v>12.14214365144008</v>
       </c>
       <c r="O21">
-        <v>22.27189994765723</v>
+        <v>14.34911634888819</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.58679280289332</v>
+        <v>15.44999135793714</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.30751972107803</v>
+        <v>7.041548542569756</v>
       </c>
       <c r="E22">
-        <v>15.20278262625482</v>
+        <v>8.900355077138908</v>
       </c>
       <c r="F22">
-        <v>30.40665769966514</v>
+        <v>21.19946992396581</v>
       </c>
       <c r="G22">
-        <v>29.86785223916746</v>
+        <v>23.62023677239877</v>
       </c>
       <c r="H22">
-        <v>14.50386518019956</v>
+        <v>8.59974297268773</v>
       </c>
       <c r="I22">
-        <v>25.26487746610644</v>
+        <v>14.44974274212104</v>
       </c>
       <c r="J22">
-        <v>10.85514570862973</v>
+        <v>6.247508079045539</v>
       </c>
       <c r="K22">
-        <v>10.15716270027624</v>
+        <v>16.04396099417662</v>
       </c>
       <c r="L22">
-        <v>9.724138729409965</v>
+        <v>8.292637159271941</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.20610585020881</v>
+        <v>12.02047911911825</v>
       </c>
       <c r="O22">
-        <v>22.24014916116861</v>
+        <v>14.42914847736682</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.51746367630768</v>
+        <v>15.19576488501274</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.3057573960063</v>
+        <v>6.992304273794132</v>
       </c>
       <c r="E23">
-        <v>15.21529381595976</v>
+        <v>8.91392970591038</v>
       </c>
       <c r="F23">
-        <v>30.41848096621918</v>
+        <v>21.07558675948032</v>
       </c>
       <c r="G23">
-        <v>29.86752290585139</v>
+        <v>23.40552053167104</v>
       </c>
       <c r="H23">
-        <v>14.51653021666281</v>
+        <v>8.603028279312312</v>
       </c>
       <c r="I23">
-        <v>25.30093949800455</v>
+        <v>14.533317693605</v>
       </c>
       <c r="J23">
-        <v>10.86287836221811</v>
+        <v>6.268896741052552</v>
       </c>
       <c r="K23">
-        <v>10.02692566650586</v>
+        <v>15.78880178921677</v>
       </c>
       <c r="L23">
-        <v>9.702014469007688</v>
+        <v>8.177494442802349</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.22514275088326</v>
+        <v>12.08520780575151</v>
       </c>
       <c r="O23">
-        <v>22.25676952401314</v>
+        <v>14.38541869535601</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.25495578015786</v>
+        <v>14.19762636392971</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.30138651795233</v>
+        <v>6.807644800189489</v>
       </c>
       <c r="E24">
-        <v>15.26554719130968</v>
+        <v>8.972167788406709</v>
       </c>
       <c r="F24">
-        <v>30.4739556615916</v>
+        <v>20.63270425032562</v>
       </c>
       <c r="G24">
-        <v>29.8803957381467</v>
+        <v>22.62298562563441</v>
       </c>
       <c r="H24">
-        <v>14.56795431421836</v>
+        <v>8.625686537902508</v>
       </c>
       <c r="I24">
-        <v>25.44390744828999</v>
+        <v>14.86626812637247</v>
       </c>
       <c r="J24">
-        <v>10.8933581701033</v>
+        <v>6.351867106438067</v>
       </c>
       <c r="K24">
-        <v>9.5147004040195</v>
+        <v>14.78304365737711</v>
       </c>
       <c r="L24">
-        <v>9.61963540916711</v>
+        <v>7.729759361306275</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.29997397023571</v>
+        <v>12.33491210517572</v>
       </c>
       <c r="O24">
-        <v>22.32686701944653</v>
+        <v>14.24175054649117</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.97324841812893</v>
+        <v>13.04764243139883</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.30164011417437</v>
+        <v>6.613262316780852</v>
       </c>
       <c r="E25">
-        <v>15.32590475052233</v>
+        <v>9.048994751932609</v>
       </c>
       <c r="F25">
-        <v>30.55664013854091</v>
+        <v>20.21065452848206</v>
       </c>
       <c r="G25">
-        <v>29.92443999434404</v>
+        <v>21.84599020841657</v>
       </c>
       <c r="H25">
-        <v>14.63081650360562</v>
+        <v>8.670566010132594</v>
       </c>
       <c r="I25">
-        <v>25.61180275610493</v>
+        <v>15.25823941464595</v>
       </c>
       <c r="J25">
-        <v>10.92880055704584</v>
+        <v>6.445645515452036</v>
       </c>
       <c r="K25">
-        <v>8.923027299042349</v>
+        <v>13.61472192105997</v>
       </c>
       <c r="L25">
-        <v>9.534088757581411</v>
+        <v>7.223710567493241</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.38655848229841</v>
+        <v>12.61418674587099</v>
       </c>
       <c r="O25">
-        <v>22.4177315990006</v>
+        <v>14.13135708977663</v>
       </c>
     </row>
   </sheetData>
